--- a/data/templates/pentad_forecast_bulletin_template.xlsx
+++ b/data/templates/pentad_forecast_bulletin_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bea/hydrosolutions Dropbox/Bea martibeatrice@gmail.com/SAPPHIRE_Central_Asia_Technical_Work/code/hydromet_pentade_docker/pentade_V2/data/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bea/Documents/GitHub/SAPPHIRE_forecast_tools/data/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88644CBB-BF3F-6244-92C0-29666648A8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4EAEEB-EC4B-9F4B-91DB-2C38025A9633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8820" yWindow="760" windowWidth="21400" windowHeight="18520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,13 +193,13 @@
     </r>
   </si>
   <si>
-    <t>Прогноз на {{PENTAD}} {{MONTH_STR_CASE2}} {{YEAR}}г ({{DAY_START}}-{{DAY_END}} {{MONTH_STR_CASE1}})</t>
-  </si>
-  <si>
     <t>НОРМА {{PENTAD}}пентада</t>
   </si>
   <si>
     <t>{{DATA.DASH}}</t>
+  </si>
+  <si>
+    <t>Прогноз на {{PENTAD}} пентада {{MONTH_STR_CASE2}} {{YEAR}}г ({{DAY_START}}-{{DAY_END}} {{MONTH_STR_CASE1}})</t>
   </si>
 </sst>
 </file>
@@ -410,6 +410,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -451,9 +454,6 @@
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,7 +738,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="13"/>
@@ -754,71 +754,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="19" customHeight="1">
-      <c r="A2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="28"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:18" ht="75" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="52" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="22" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1">
       <c r="A5" s="7">
@@ -827,11 +827,11 @@
       <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="26">
         <v>3</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="7">
         <v>4</v>
       </c>
@@ -843,16 +843,16 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="14" customHeight="1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -870,7 +870,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>11</v>
